--- a/output/TAVOLA_07659002000136.xlsx
+++ b/output/TAVOLA_07659002000136.xlsx
@@ -2374,10 +2374,10 @@
         <v>44165</v>
       </c>
       <c r="B181">
-        <v>3.4116646</v>
+        <v>3.4120226</v>
       </c>
       <c r="C181">
-        <v>0.0007900990106646244</v>
+        <v>0.0008713116340008931</v>
       </c>
     </row>
   </sheetData>

--- a/output/TAVOLA_07659002000136.xlsx
+++ b/output/TAVOLA_07659002000136.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TAVOLA LONG E SHORT FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1998 +383,1458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38717</v>
       </c>
       <c r="B2">
-        <v>0.01492234999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38748</v>
       </c>
       <c r="B3">
-        <v>0.05833880000000002</v>
-      </c>
-      <c r="C3">
         <v>0.04277810021623818</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38776</v>
       </c>
       <c r="B4">
-        <v>0.09279913999999989</v>
-      </c>
-      <c r="C4">
         <v>0.03256078299312071</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38807</v>
       </c>
       <c r="B5">
-        <v>0.1045917999999999</v>
-      </c>
-      <c r="C5">
         <v>0.01079124202092618</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38837</v>
       </c>
       <c r="B6">
-        <v>0.1508137199999999</v>
-      </c>
-      <c r="C6">
         <v>0.04184524998284433</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38868</v>
       </c>
       <c r="B7">
-        <v>0.12589553</v>
-      </c>
-      <c r="C7">
         <v>-0.02165267025144602</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38898</v>
       </c>
       <c r="B8">
-        <v>0.14539378</v>
-      </c>
-      <c r="C8">
         <v>0.01731799219417818</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38929</v>
       </c>
       <c r="B9">
-        <v>0.14210776</v>
-      </c>
-      <c r="C9">
         <v>-0.002868899811905745</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38960</v>
       </c>
       <c r="B10">
-        <v>0.1529182200000001</v>
-      </c>
-      <c r="C10">
         <v>0.009465359030569998</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38990</v>
       </c>
       <c r="B11">
-        <v>0.1951947300000001</v>
-      </c>
-      <c r="C11">
         <v>0.03666913165792463</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>39021</v>
       </c>
       <c r="B12">
-        <v>0.2050049599999999</v>
-      </c>
-      <c r="C12">
         <v>0.0082080599535439</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>39051</v>
       </c>
       <c r="B13">
-        <v>0.25830679</v>
-      </c>
-      <c r="C13">
         <v>0.04423370174343533</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>39082</v>
       </c>
       <c r="B14">
-        <v>0.2950910499999999</v>
-      </c>
-      <c r="C14">
         <v>0.02923314114835218</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>39113</v>
       </c>
       <c r="B15">
-        <v>0.33536663</v>
-      </c>
-      <c r="C15">
         <v>0.03109864746575153</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>39141</v>
       </c>
       <c r="B16">
-        <v>0.36356061</v>
-      </c>
-      <c r="C16">
         <v>0.02111328781669486</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>39172</v>
       </c>
       <c r="B17">
-        <v>0.40212256</v>
-      </c>
-      <c r="C17">
         <v>0.02828033438132249</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>39202</v>
       </c>
       <c r="B18">
-        <v>0.4259717700000001</v>
-      </c>
-      <c r="C18">
         <v>0.01700936186348789</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>39233</v>
       </c>
       <c r="B19">
-        <v>0.47018775</v>
-      </c>
-      <c r="C19">
         <v>0.03100761244382833</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>39263</v>
       </c>
       <c r="B20">
-        <v>0.50398046</v>
-      </c>
-      <c r="C20">
         <v>0.02298530238739915</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>39294</v>
       </c>
       <c r="B21">
-        <v>0.58986486</v>
-      </c>
-      <c r="C21">
         <v>0.05710473126758586</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>39325</v>
       </c>
       <c r="B22">
-        <v>0.59284143</v>
-      </c>
-      <c r="C22">
         <v>0.001872215730335691</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39355</v>
       </c>
       <c r="B23">
-        <v>0.5750216500000001</v>
-      </c>
-      <c r="C23">
         <v>-0.01118741618869112</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39386</v>
       </c>
       <c r="B24">
-        <v>0.5386172499999999</v>
-      </c>
-      <c r="C24">
         <v>-0.02311358704180355</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39416</v>
       </c>
       <c r="B25">
-        <v>0.55666299</v>
-      </c>
-      <c r="C25">
         <v>0.01172854392474809</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39447</v>
       </c>
       <c r="B26">
-        <v>0.56831565</v>
-      </c>
-      <c r="C26">
         <v>0.007485666502548449</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39478</v>
       </c>
       <c r="B27">
-        <v>0.5402559199999999</v>
-      </c>
-      <c r="C27">
         <v>-0.01789163425105145</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39507</v>
       </c>
       <c r="B28">
-        <v>0.5529605500000001</v>
-      </c>
-      <c r="C28">
         <v>0.008248389007977419</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39538</v>
       </c>
       <c r="B29">
-        <v>0.4942982600000001</v>
-      </c>
-      <c r="C29">
         <v>-0.03777448821864793</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39568</v>
       </c>
       <c r="B30">
-        <v>0.4743112700000001</v>
-      </c>
-      <c r="C30">
         <v>-0.01337550242479701</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39599</v>
       </c>
       <c r="B31">
-        <v>0.5847592699999999</v>
-      </c>
-      <c r="C31">
         <v>0.0749149804708471</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39629</v>
       </c>
       <c r="B32">
-        <v>0.58987821</v>
-      </c>
-      <c r="C32">
         <v>0.00323010573082172</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39660</v>
       </c>
       <c r="B33">
-        <v>0.5559569099999999</v>
-      </c>
-      <c r="C33">
         <v>-0.02133578521086843</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39691</v>
       </c>
       <c r="B34">
-        <v>0.51410077</v>
-      </c>
-      <c r="C34">
         <v>-0.02690057785726208</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39721</v>
       </c>
       <c r="B35">
-        <v>0.4677789999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.03059358460005279</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39752</v>
       </c>
       <c r="B36">
-        <v>0.4211653900000001</v>
-      </c>
-      <c r="C36">
         <v>-0.03175792132194277</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39782</v>
       </c>
       <c r="B37">
-        <v>0.4408192900000001</v>
-      </c>
-      <c r="C37">
         <v>0.01382942487784611</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39813</v>
       </c>
       <c r="B38">
-        <v>0.48684438</v>
-      </c>
-      <c r="C38">
         <v>0.03194369364668903</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39844</v>
       </c>
       <c r="B39">
-        <v>0.5067343900000001</v>
-      </c>
-      <c r="C39">
         <v>0.01337733139227404</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39872</v>
       </c>
       <c r="B40">
-        <v>0.53054844</v>
-      </c>
-      <c r="C40">
         <v>0.01580507497409678</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39903</v>
       </c>
       <c r="B41">
-        <v>0.5553086</v>
-      </c>
-      <c r="C41">
         <v>0.01617731223194752</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39933</v>
       </c>
       <c r="B42">
-        <v>0.66008566</v>
-      </c>
-      <c r="C42">
         <v>0.06736737648078339</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39964</v>
       </c>
       <c r="B43">
-        <v>0.7083117000000001</v>
-      </c>
-      <c r="C43">
         <v>0.0290503322581559</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39994</v>
       </c>
       <c r="B44">
-        <v>0.76936856</v>
-      </c>
-      <c r="C44">
         <v>0.03574105357939072</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>40025</v>
       </c>
       <c r="B45">
-        <v>0.8518010499999999</v>
-      </c>
-      <c r="C45">
         <v>0.04658864855154876</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>40056</v>
       </c>
       <c r="B46">
-        <v>0.90550793</v>
-      </c>
-      <c r="C46">
         <v>0.02900251082587957</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>40086</v>
       </c>
       <c r="B47">
-        <v>0.91670023</v>
-      </c>
-      <c r="C47">
         <v>0.005873657004408228</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>40117</v>
       </c>
       <c r="B48">
-        <v>0.9366626600000001</v>
-      </c>
-      <c r="C48">
         <v>0.0104149984893569</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>40147</v>
       </c>
       <c r="B49">
-        <v>0.9442276700000001</v>
-      </c>
-      <c r="C49">
         <v>0.003906209458285348</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>40178</v>
       </c>
       <c r="B50">
-        <v>0.9506188200000001</v>
-      </c>
-      <c r="C50">
         <v>0.00328724361792454</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>40209</v>
       </c>
       <c r="B51">
-        <v>0.97119314</v>
-      </c>
-      <c r="C51">
         <v>0.01054758612448947</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>40237</v>
       </c>
       <c r="B52">
-        <v>0.9649630199999999</v>
-      </c>
-      <c r="C52">
         <v>-0.003160583239448678</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>40268</v>
       </c>
       <c r="B53">
-        <v>0.9416781299999999</v>
-      </c>
-      <c r="C53">
         <v>-0.0118500398038025</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>40298</v>
       </c>
       <c r="B54">
-        <v>0.94958199</v>
-      </c>
-      <c r="C54">
         <v>0.004070633478268748</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>40329</v>
       </c>
       <c r="B55">
-        <v>0.96236313</v>
-      </c>
-      <c r="C55">
         <v>0.006555836105154089</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40359</v>
       </c>
       <c r="B56">
-        <v>0.9581796600000001</v>
-      </c>
-      <c r="C56">
         <v>-0.002131853139739626</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40390</v>
       </c>
       <c r="B57">
-        <v>0.9511337900000001</v>
-      </c>
-      <c r="C57">
         <v>-0.003598173417856843</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40421</v>
       </c>
       <c r="B58">
-        <v>0.98784889</v>
-      </c>
-      <c r="C58">
         <v>0.01881731544406295</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40451</v>
       </c>
       <c r="B59">
-        <v>0.99512874</v>
-      </c>
-      <c r="C59">
         <v>0.003662174744077262</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40482</v>
       </c>
       <c r="B60">
-        <v>1.03090755</v>
-      </c>
-      <c r="C60">
         <v>0.01793308335581378</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40512</v>
       </c>
       <c r="B61">
-        <v>1.05674869</v>
-      </c>
-      <c r="C61">
         <v>0.01272393713834985</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40543</v>
       </c>
       <c r="B62">
-        <v>1.0738954</v>
-      </c>
-      <c r="C62">
         <v>0.008336803656843417</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40574</v>
       </c>
       <c r="B63">
-        <v>1.12009485</v>
-      </c>
-      <c r="C63">
         <v>0.02227665387560052</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40602</v>
       </c>
       <c r="B64">
-        <v>1.13467198</v>
-      </c>
-      <c r="C64">
         <v>0.006875697094401056</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40633</v>
       </c>
       <c r="B65">
-        <v>1.16013115</v>
-      </c>
-      <c r="C65">
         <v>0.01192650216919988</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40663</v>
       </c>
       <c r="B66">
-        <v>1.18239175</v>
-      </c>
-      <c r="C66">
         <v>0.0103052076259349</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40694</v>
       </c>
       <c r="B67">
-        <v>1.22927854</v>
-      </c>
-      <c r="C67">
         <v>0.02148413088530066</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40724</v>
       </c>
       <c r="B68">
-        <v>1.24724515</v>
-      </c>
-      <c r="C68">
         <v>0.008059383193990577</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40755</v>
       </c>
       <c r="B69">
-        <v>1.27262837</v>
-      </c>
-      <c r="C69">
         <v>0.01129526077740128</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40786</v>
       </c>
       <c r="B70">
-        <v>1.26823293</v>
-      </c>
-      <c r="C70">
         <v>-0.001934077765649023</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40816</v>
       </c>
       <c r="B71">
-        <v>1.28177691</v>
-      </c>
-      <c r="C71">
         <v>0.005971159231869638</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40847</v>
       </c>
       <c r="B72">
-        <v>1.28410751</v>
-      </c>
-      <c r="C72">
         <v>0.001021396960318999</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40877</v>
       </c>
       <c r="B73">
-        <v>1.28254136</v>
-      </c>
-      <c r="C73">
         <v>-0.0006856726284306669</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40908</v>
       </c>
       <c r="B74">
-        <v>1.31250463</v>
-      </c>
-      <c r="C74">
         <v>0.01312715314827839</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40939</v>
       </c>
       <c r="B75">
-        <v>1.33080903</v>
-      </c>
-      <c r="C75">
         <v>0.007915400368301295</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40968</v>
       </c>
       <c r="B76">
-        <v>1.36583484</v>
-      </c>
-      <c r="C76">
         <v>0.01502731864737972</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40999</v>
       </c>
       <c r="B77">
-        <v>1.41340246</v>
-      </c>
-      <c r="C77">
         <v>0.02010606116528391</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>41029</v>
       </c>
       <c r="B78">
-        <v>1.42292724</v>
-      </c>
-      <c r="C78">
         <v>0.003946618998639684</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>41060</v>
       </c>
       <c r="B79">
-        <v>1.43955819</v>
-      </c>
-      <c r="C79">
         <v>0.006863990682609344</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>41090</v>
       </c>
       <c r="B80">
-        <v>1.44701029</v>
-      </c>
-      <c r="C80">
         <v>0.003054692456423869</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>41121</v>
       </c>
       <c r="B81">
-        <v>1.4579167</v>
-      </c>
-      <c r="C81">
         <v>0.004457034792444636</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>41152</v>
       </c>
       <c r="B82">
-        <v>1.49687629</v>
-      </c>
-      <c r="C82">
         <v>0.01585065515035544</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>41182</v>
       </c>
       <c r="B83">
-        <v>1.50417299</v>
-      </c>
-      <c r="C83">
         <v>0.00292233140633491</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>41213</v>
       </c>
       <c r="B84">
-        <v>1.55595868</v>
-      </c>
-      <c r="C84">
         <v>0.02067975743161421</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>41243</v>
       </c>
       <c r="B85">
-        <v>1.58402839</v>
-      </c>
-      <c r="C85">
         <v>0.01098206720618822</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>41274</v>
       </c>
       <c r="B86">
-        <v>1.59998711</v>
-      </c>
-      <c r="C86">
         <v>0.00617590737847884</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>41305</v>
       </c>
       <c r="B87">
-        <v>1.6497215</v>
-      </c>
-      <c r="C87">
         <v>0.01912870637270214</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>41333</v>
       </c>
       <c r="B88">
-        <v>1.67495707</v>
-      </c>
-      <c r="C88">
         <v>0.009523857507288902</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41364</v>
       </c>
       <c r="B89">
-        <v>1.69951803</v>
-      </c>
-      <c r="C89">
         <v>0.009181814644972919</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41394</v>
       </c>
       <c r="B90">
-        <v>1.71036196</v>
-      </c>
-      <c r="C90">
         <v>0.004016987432382546</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41425</v>
       </c>
       <c r="B91">
-        <v>1.71041685</v>
-      </c>
-      <c r="C91">
         <v>2.025190760868156e-05</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41455</v>
       </c>
       <c r="B92">
-        <v>1.69987761</v>
-      </c>
-      <c r="C92">
         <v>-0.003888420336524923</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41486</v>
       </c>
       <c r="B93">
-        <v>1.70235495</v>
-      </c>
-      <c r="C93">
         <v>0.0009175749266649991</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41517</v>
       </c>
       <c r="B94">
-        <v>1.70407642</v>
-      </c>
-      <c r="C94">
         <v>0.000637025865162455</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41547</v>
       </c>
       <c r="B95">
-        <v>1.71533089</v>
-      </c>
-      <c r="C95">
         <v>0.004162038438248139</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41578</v>
       </c>
       <c r="B96">
-        <v>1.69980239</v>
-      </c>
-      <c r="C96">
         <v>-0.005718824198254646</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41608</v>
       </c>
       <c r="B97">
-        <v>1.7003251</v>
-      </c>
-      <c r="C97">
         <v>0.0001936104664312932</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41639</v>
       </c>
       <c r="B98">
-        <v>1.70157286</v>
-      </c>
-      <c r="C98">
         <v>0.0004620776957560135</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41670</v>
       </c>
       <c r="B99">
-        <v>1.68835403</v>
-      </c>
-      <c r="C99">
         <v>-0.004893012583787937</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41698</v>
       </c>
       <c r="B100">
-        <v>1.68186933</v>
-      </c>
-      <c r="C100">
         <v>-0.002412145099803031</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41729</v>
       </c>
       <c r="B101">
-        <v>1.64919111</v>
-      </c>
-      <c r="C101">
         <v>-0.01218486659079698</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41759</v>
       </c>
       <c r="B102">
-        <v>1.64612663</v>
-      </c>
-      <c r="C102">
         <v>-0.001156760638533094</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41790</v>
       </c>
       <c r="B103">
-        <v>1.65788927</v>
-      </c>
-      <c r="C103">
         <v>0.004445229440890319</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41820</v>
       </c>
       <c r="B104">
-        <v>1.67104162</v>
-      </c>
-      <c r="C104">
         <v>0.004948419088956157</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41851</v>
       </c>
       <c r="B105">
-        <v>1.71816145</v>
-      </c>
-      <c r="C105">
         <v>0.01764099430244004</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41882</v>
       </c>
       <c r="B106">
-        <v>1.72707775</v>
-      </c>
-      <c r="C106">
         <v>0.003280268727230862</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41912</v>
       </c>
       <c r="B107">
-        <v>1.72874465</v>
-      </c>
-      <c r="C107">
         <v>0.0006112403652591691</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41943</v>
       </c>
       <c r="B108">
-        <v>1.77381368</v>
-      </c>
-      <c r="C108">
         <v>0.01651639701794738</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41973</v>
       </c>
       <c r="B109">
-        <v>1.79877452</v>
-      </c>
-      <c r="C109">
         <v>0.008998744284799853</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>42004</v>
       </c>
       <c r="B110">
-        <v>1.8165686</v>
-      </c>
-      <c r="C110">
         <v>0.006357811203740793</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>42035</v>
       </c>
       <c r="B111">
-        <v>1.7615822</v>
-      </c>
-      <c r="C111">
         <v>-0.01952247852227007</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>42063</v>
       </c>
       <c r="B112">
-        <v>1.7902142</v>
-      </c>
-      <c r="C112">
         <v>0.01036796949227159</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>42094</v>
       </c>
       <c r="B113">
-        <v>1.8021392</v>
-      </c>
-      <c r="C113">
         <v>0.00427386542581587</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>42124</v>
       </c>
       <c r="B114">
-        <v>1.8025455</v>
-      </c>
-      <c r="C114">
         <v>0.0001449963656336983</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>42155</v>
       </c>
       <c r="B115">
-        <v>1.8269531</v>
-      </c>
-      <c r="C115">
         <v>0.008709082510881538</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>42185</v>
       </c>
       <c r="B116">
-        <v>1.8696948</v>
-      </c>
-      <c r="C116">
         <v>0.01511935235147699</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>42216</v>
       </c>
       <c r="B117">
-        <v>1.8915985</v>
-      </c>
-      <c r="C117">
         <v>0.00763276289868875</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>42247</v>
       </c>
       <c r="B118">
-        <v>1.9252601</v>
-      </c>
-      <c r="C118">
         <v>0.01164117355850047</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>42277</v>
       </c>
       <c r="B119">
-        <v>1.923788</v>
-      </c>
-      <c r="C119">
         <v>-0.0005032373018727387</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>42308</v>
       </c>
       <c r="B120">
-        <v>1.9742272</v>
-      </c>
-      <c r="C120">
         <v>0.01725131917909239</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42338</v>
       </c>
       <c r="B121">
-        <v>2.005553</v>
-      </c>
-      <c r="C121">
         <v>0.01053241662237503</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42369</v>
       </c>
       <c r="B122">
-        <v>2.0478687</v>
-      </c>
-      <c r="C122">
         <v>0.01407917278450932</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42400</v>
       </c>
       <c r="B123">
-        <v>2.0947289</v>
-      </c>
-      <c r="C123">
         <v>0.01537474366923997</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42429</v>
       </c>
       <c r="B124">
-        <v>2.1119757</v>
-      </c>
-      <c r="C124">
         <v>0.005572959880266071</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42460</v>
       </c>
       <c r="B125">
-        <v>2.1304076</v>
-      </c>
-      <c r="C125">
         <v>0.005922893292515052</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42490</v>
       </c>
       <c r="B126">
-        <v>2.1573267</v>
-      </c>
-      <c r="C126">
         <v>0.008599231614438985</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42521</v>
       </c>
       <c r="B127">
-        <v>2.1679874</v>
-      </c>
-      <c r="C127">
         <v>0.003376495691750803</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42551</v>
       </c>
       <c r="B128">
-        <v>2.2162964</v>
-      </c>
-      <c r="C128">
         <v>0.01524911368018711</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42582</v>
       </c>
       <c r="B129">
-        <v>2.2590659</v>
-      </c>
-      <c r="C129">
         <v>0.01329774830454067</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42613</v>
       </c>
       <c r="B130">
-        <v>2.2940332</v>
-      </c>
-      <c r="C130">
         <v>0.01072923993344221</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42643</v>
       </c>
       <c r="B131">
-        <v>2.3277551</v>
-      </c>
-      <c r="C131">
         <v>0.01023726779681522</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42674</v>
       </c>
       <c r="B132">
-        <v>2.3651099</v>
-      </c>
-      <c r="C132">
         <v>0.01122522507741031</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42704</v>
       </c>
       <c r="B133">
-        <v>2.4091089</v>
-      </c>
-      <c r="C133">
         <v>0.01307505588450475</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42735</v>
       </c>
       <c r="B134">
-        <v>2.4650159</v>
-      </c>
-      <c r="C134">
         <v>0.01639930012209345</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42766</v>
       </c>
       <c r="B135">
-        <v>2.5176096</v>
-      </c>
-      <c r="C135">
         <v>0.01517848734835536</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42794</v>
       </c>
       <c r="B136">
-        <v>2.5688064</v>
-      </c>
-      <c r="C136">
         <v>0.01455442923512607</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42825</v>
       </c>
       <c r="B137">
-        <v>2.6401709</v>
-      </c>
-      <c r="C137">
         <v>0.01999674176777977</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42855</v>
       </c>
       <c r="B138">
-        <v>2.6363497</v>
-      </c>
-      <c r="C138">
         <v>-0.001049730934336246</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42886</v>
       </c>
       <c r="B139">
-        <v>2.6684129</v>
-      </c>
-      <c r="C139">
         <v>0.008817413792738371</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42916</v>
       </c>
       <c r="B140">
-        <v>2.7116303</v>
-      </c>
-      <c r="C140">
         <v>0.01178095301104198</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42947</v>
       </c>
       <c r="B141">
-        <v>2.7447205</v>
-      </c>
-      <c r="C141">
         <v>0.008915273700616178</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42978</v>
       </c>
       <c r="B142">
-        <v>2.7758725</v>
-      </c>
-      <c r="C142">
         <v>0.008318911918793415</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>43008</v>
       </c>
       <c r="B143">
-        <v>2.8040898</v>
-      </c>
-      <c r="C143">
         <v>0.00747305424110567</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>43039</v>
       </c>
       <c r="B144">
-        <v>2.8293745</v>
-      </c>
-      <c r="C144">
         <v>0.006646714806785026</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>43069</v>
       </c>
       <c r="B145">
-        <v>2.824868</v>
-      </c>
-      <c r="C145">
         <v>-0.001176824047896097</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>43100</v>
       </c>
       <c r="B146">
-        <v>2.8499378</v>
-      </c>
-      <c r="C146">
         <v>0.006554422270258708</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>43131</v>
       </c>
       <c r="B147">
-        <v>2.8986156</v>
-      </c>
-      <c r="C147">
         <v>0.01264378868666394</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>43159</v>
       </c>
       <c r="B148">
-        <v>2.939153</v>
-      </c>
-      <c r="C148">
         <v>0.01039789611471331</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>43190</v>
       </c>
       <c r="B149">
-        <v>2.9692237</v>
-      </c>
-      <c r="C149">
         <v>0.007633798433318129</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>43220</v>
       </c>
       <c r="B150">
-        <v>2.9905324</v>
-      </c>
-      <c r="C150">
         <v>0.00536848049153793</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>43251</v>
       </c>
       <c r="B151">
-        <v>2.9789125</v>
-      </c>
-      <c r="C151">
         <v>-0.002911867098234877</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>43281</v>
       </c>
       <c r="B152">
-        <v>2.9888026</v>
-      </c>
-      <c r="C152">
         <v>0.002485628924989047</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>43312</v>
       </c>
       <c r="B153">
-        <v>3.0195608</v>
-      </c>
-      <c r="C153">
         <v>0.007711136169034738</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43343</v>
       </c>
       <c r="B154">
-        <v>3.0378478</v>
-      </c>
-      <c r="C154">
         <v>0.004549502025196439</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43373</v>
       </c>
       <c r="B155">
-        <v>3.0213919</v>
-      </c>
-      <c r="C155">
         <v>-0.004075413639909709</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43404</v>
       </c>
       <c r="B156">
-        <v>3.1501024</v>
-      </c>
-      <c r="C156">
         <v>0.03200645527733803</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43434</v>
       </c>
       <c r="B157">
-        <v>3.1851414</v>
-      </c>
-      <c r="C157">
         <v>0.008442924203508895</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43465</v>
       </c>
       <c r="B158">
-        <v>3.2168233</v>
-      </c>
-      <c r="C158">
         <v>0.007570090702311738</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43496</v>
       </c>
       <c r="B159">
-        <v>3.2680214</v>
-      </c>
-      <c r="C159">
         <v>0.01214139089015198</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43524</v>
       </c>
       <c r="B160">
-        <v>3.3029754</v>
-      </c>
-      <c r="C160">
         <v>0.008189743378512526</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43555</v>
       </c>
       <c r="B161">
-        <v>3.3401472</v>
-      </c>
-      <c r="C161">
         <v>0.008638627122990128</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43585</v>
       </c>
       <c r="B162">
-        <v>3.3798854</v>
-      </c>
-      <c r="C162">
         <v>0.009155956738057247</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43616</v>
       </c>
       <c r="B163">
-        <v>3.3758874</v>
-      </c>
-      <c r="C163">
         <v>-0.0009128092712197278</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43646</v>
       </c>
       <c r="B164">
-        <v>3.3983791</v>
-      </c>
-      <c r="C164">
         <v>0.005139917448515607</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43677</v>
       </c>
       <c r="B165">
-        <v>3.4410738</v>
-      </c>
-      <c r="C165">
         <v>0.009706916804874899</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43708</v>
       </c>
       <c r="B166">
-        <v>3.4641555</v>
-      </c>
-      <c r="C166">
         <v>0.005197324124629699</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43738</v>
       </c>
       <c r="B167">
-        <v>3.4678834</v>
-      </c>
-      <c r="C167">
         <v>0.0008350739574369825</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43769</v>
       </c>
       <c r="B168">
-        <v>3.4722602</v>
-      </c>
-      <c r="C168">
         <v>0.0009796137473059296</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43799</v>
       </c>
       <c r="B169">
-        <v>3.5051429</v>
-      </c>
-      <c r="C169">
         <v>0.007352590978494611</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43830</v>
       </c>
       <c r="B170">
-        <v>3.5437656</v>
-      </c>
-      <c r="C170">
         <v>0.008573024398404794</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43861</v>
       </c>
       <c r="B171">
-        <v>3.5344071</v>
-      </c>
-      <c r="C171">
         <v>-0.002059635294567208</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43890</v>
       </c>
       <c r="B172">
-        <v>3.5292189</v>
-      </c>
-      <c r="C172">
         <v>-0.001144184870388032</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43921</v>
       </c>
       <c r="B173">
-        <v>3.4072874</v>
-      </c>
-      <c r="C173">
         <v>-0.02692108787234804</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43951</v>
       </c>
       <c r="B174">
-        <v>3.4126057</v>
-      </c>
-      <c r="C174">
         <v>0.001206705966123156</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43982</v>
       </c>
       <c r="B175">
-        <v>3.4662285</v>
-      </c>
-      <c r="C175">
         <v>0.01215218481905134</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>44012</v>
       </c>
       <c r="B176">
-        <v>3.5242169</v>
-      </c>
-      <c r="C176">
         <v>0.01298375127918328</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>44043</v>
       </c>
       <c r="B177">
-        <v>3.5553801</v>
-      </c>
-      <c r="C177">
         <v>0.006888087085302974</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>44074</v>
       </c>
       <c r="B178">
-        <v>3.5178737</v>
-      </c>
-      <c r="C178">
         <v>-0.008233429302639261</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>44104</v>
       </c>
       <c r="B179">
-        <v>3.5141697</v>
-      </c>
-      <c r="C179">
         <v>-0.0008198547028882563</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>44135</v>
       </c>
       <c r="B180">
-        <v>3.4081817</v>
-      </c>
-      <c r="C180">
         <v>-0.02347895782473575</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>44165</v>
       </c>
       <c r="B181">
-        <v>3.4120226</v>
-      </c>
-      <c r="C181">
-        <v>0.0008713116340008931</v>
+        <v>-0.0008311817092293561</v>
       </c>
     </row>
   </sheetData>
